--- a/020_data/2019_PA_boxes.xlsx
+++ b/020_data/2019_PA_boxes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/020_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C749B03-DF80-9F4F-A4C6-E0FFDAF2738C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015F4FA8-6571-7E40-87EB-298580D41472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="23260" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,8 +660,8 @@
   <dimension ref="A1:O147"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="8" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="B135:D146"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -823,6 +823,9 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -1092,6 +1095,9 @@
       </c>
       <c r="D22" t="s">
         <v>31</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
@@ -1736,6 +1742,12 @@
       <c r="D58" t="s">
         <v>60</v>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
@@ -1922,6 +1934,9 @@
       <c r="D69" t="s">
         <v>58</v>
       </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
@@ -1933,6 +1948,9 @@
       <c r="D70" t="s">
         <v>40</v>
       </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
@@ -1972,6 +1990,9 @@
       </c>
       <c r="D72" t="s">
         <v>31</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
@@ -2485,6 +2506,9 @@
       <c r="D99" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="5" t="s">
@@ -2496,6 +2520,9 @@
       <c r="D100" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
@@ -2507,6 +2534,9 @@
       <c r="D101" t="s">
         <v>59</v>
       </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="5" t="s">
@@ -2517,6 +2547,9 @@
       </c>
       <c r="D102" t="s">
         <v>31</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.2">
